--- a/INTLINE/data/223/SIDRA/old/Table 1737 indice.xlsx
+++ b/INTLINE/data/223/SIDRA/old/Table 1737 indice.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="517">
   <si>
     <t>Tabela 1737 - IPCA - Série histórica com número-índice, variação mensal e variações acumuladas em 3 meses, em 6 meses, no ano e em 12 meses (a partir de dezembro/1979)</t>
   </si>
@@ -1539,6 +1539,15 @@
   </si>
   <si>
     <t>novembro 2021</t>
+  </si>
+  <si>
+    <t>dezembro 2021</t>
+  </si>
+  <si>
+    <t>janeiro 2022</t>
+  </si>
+  <si>
+    <t>fevereiro 2022</t>
   </si>
   <si>
     <t>IPCA - Número-índice (base: dezembro de 1993 = 100) (Número-índice)</t>
@@ -1667,7 +1676,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:SK7"/>
+  <dimension ref="A1:SN7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1675,7 +1684,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="505" width="19.285714285714285"/>
+    <col min="1" max="508" width="19.285714285714285"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3194,6 +3203,15 @@
       <c r="SK1" s="1">
         <v/>
       </c>
+      <c r="SL1" s="1">
+        <v/>
+      </c>
+      <c r="SM1" s="1">
+        <v/>
+      </c>
+      <c r="SN1" s="1">
+        <v/>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
@@ -4711,6 +4729,15 @@
       <c r="SK2" s="2">
         <v/>
       </c>
+      <c r="SL2" s="2">
+        <v/>
+      </c>
+      <c r="SM2" s="2">
+        <v/>
+      </c>
+      <c r="SN2" s="2">
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
@@ -6228,6 +6255,15 @@
       <c r="SK3" s="2">
         <v/>
       </c>
+      <c r="SL3" s="2">
+        <v/>
+      </c>
+      <c r="SM3" s="2">
+        <v/>
+      </c>
+      <c r="SN3" s="2">
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
@@ -7745,10 +7781,19 @@
       <c r="SK4" t="s" s="2">
         <v>507</v>
       </c>
+      <c r="SL4" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="SM4" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="SN4" t="s" s="2">
+        <v>510</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="3">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="B5" s="4">
         <v>0.0000000076183</v>
@@ -9261,47 +9306,56 @@
       </c>
       <c r="SK5" s="4">
         <v>6075.6900000000000</v>
+      </c>
+      <c r="SL5" s="4">
+        <v>6120.0400000000000</v>
+      </c>
+      <c r="SM5" s="4">
+        <v>6153.0900000000000</v>
+      </c>
+      <c r="SN5" s="4">
+        <v>6215.2400000000000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="3">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C6" t="s" s="4">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="D6" t="s" s="4">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="E6" t="s" s="4">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="F6" t="s" s="4">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="G6" t="s" s="4">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="H6" t="s" s="4">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="I6" t="s" s="4">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="J6" t="s" s="4">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="K6" t="s" s="4">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="L6" t="s" s="4">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="M6" t="s" s="4">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="N6" s="4">
         <v>99.25</v>
@@ -10778,11 +10832,20 @@
       </c>
       <c r="SK6" s="4">
         <v>10.74</v>
+      </c>
+      <c r="SL6" s="4">
+        <v>10.06</v>
+      </c>
+      <c r="SM6" s="4">
+        <v>10.38</v>
+      </c>
+      <c r="SN6" s="4">
+        <v>10.54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B7" s="2">
         <v/>
@@ -12294,16 +12357,25 @@
         <v/>
       </c>
       <c r="SK7" s="2">
+        <v/>
+      </c>
+      <c r="SL7" s="2">
+        <v/>
+      </c>
+      <c r="SM7" s="2">
+        <v/>
+      </c>
+      <c r="SN7" s="2">
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:SK1"/>
-    <mergeCell ref="A2:SK2"/>
+    <mergeCell ref="A1:SN1"/>
+    <mergeCell ref="A2:SN2"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:SK3"/>
-    <mergeCell ref="A7:SK7"/>
+    <mergeCell ref="B3:SN3"/>
+    <mergeCell ref="A7:SN7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12324,12 +12396,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="5">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
   </sheetData>
